--- a/VB03_TA_GROUP/SQL_QUERIES.xlsx
+++ b/VB03_TA_GROUP/SQL_QUERIES.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="DATABASE_THANH_VIEN" sheetId="1" r:id="rId1"/>
-    <sheet name="DATABASE_CHUNG" sheetId="2" r:id="rId2"/>
+    <sheet name="MUTUAL_2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -126,114 +126,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MUTUAL_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DON_DAT_HANG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MUTUAL_2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Database name  ******/
-GO
-CREATE TABLE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TB_DANH_MUC_HANG_HOA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /****** Table name  ******/
-(
-    MA_KHACH_HANG Varchar(50),
-    TEN_KHACH_HANG nVarchar(200),
-    MST_CHINH Varchar(10),
-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TBD_2024</t>
     </r>
     <r>
@@ -445,7 +337,168 @@
     </r>
   </si>
   <si>
-    <t>DROP TABLE [MUTUAL_2024].[dbo].[TB_USER_ID];</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TABLE [MUTUAL_2024].[dbo].[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_USER_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MUTUAL_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DANH_MUC_HANG_HOA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_HANG Varchar(50),
+    TEN_HANG nVarchar(500),
+    DVT nVarchar(50),
+    DON_GIA_HA_NOI Decimal(15,2),
+    DON_GIA_MIEN_BAC Decimal(15,2),
+    DON_GIA_NINH_BINH Decimal(15,2),
+    DON_GIA_NGHE_AN Decimal(15,2),
+    DON_GIA_TBD Decimal(15,2),
+    DON_GIA_DA_NANG Decimal(15,2),
+    DON_GIA_KHANH_HOA Decimal(15,2),
+    DON_GIA_DONG_NAI Decimal(15,2),
+    DON_GIA_TVTK Decimal(15,2),
+    DON_GIA_MIEN_TAY Decimal(15,2),
+    DON_GIA_POLY Decimal(15,2),
+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MUTUAL_2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Database name  ******/
+GO
+CREATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TB_DON_DAT_HANG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /****** Table name  ******/
+(
+    MA_KHACH_HANG Varchar(50),
+    TEN_KHACH_HANG nVarchar(200),
+    MST_CHINH Varchar(10),
+    NGAY_KHOI_TAO datetime,
+)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -489,10 +542,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +834,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,17 +854,17 @@
     </row>
     <row r="3" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +875,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,23 +887,27 @@
     <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="232.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
